--- a/media/Levels/Stage02/UpWallMap.xlsx
+++ b/media/Levels/Stage02/UpWallMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\Desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A679ECEA-C83E-4D8E-A84B-5A71B74F21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A00341-C910-452B-B90B-938D45C3B25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11532" yWindow="984" windowWidth="15540" windowHeight="9888" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -552,34 +552,34 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -628,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -680,22 +680,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
